--- a/data_for_test/2data.xlsx
+++ b/data_for_test/2data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="25">
   <si>
     <t>ref_district</t>
   </si>
@@ -69,13 +69,43 @@
   </si>
   <si>
     <t>Александр</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>16:12:12.234234</t>
+  </si>
+  <si>
+    <t>2018-12-13 11:40:03.923859</t>
+  </si>
+  <si>
+    <t>23:12:12.234234</t>
+  </si>
+  <si>
+    <t>12:12:12.234234</t>
+  </si>
+  <si>
+    <t>13:12:12.234234</t>
+  </si>
+  <si>
+    <t>12:10:12.234234</t>
+  </si>
+  <si>
+    <t>13:10:12.234234</t>
+  </si>
+  <si>
+    <t>22:10:12.234234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +121,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF155724"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,11 +150,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -398,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,9 +451,11 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,8 +477,14 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -454,13 +501,19 @@
         <v>83591</v>
       </c>
       <c r="F2" s="3">
-        <v>43591</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -477,15 +530,20 @@
         <f t="shared" ref="E3:E19" si="0">D3/2</f>
         <v>104793.5</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F42" si="1">E3/20 +4</f>
-        <v>5243.6750000000002</v>
+      <c r="F3" s="1">
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -502,15 +560,20 @@
         <f t="shared" si="0"/>
         <v>254796</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>12743.8</v>
+      <c r="F4" s="1">
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -527,15 +590,20 @@
         <f t="shared" si="0"/>
         <v>269129</v>
       </c>
-      <c r="F5">
-        <f>E5/20 +4</f>
-        <v>13460.45</v>
+      <c r="F5" s="1">
+        <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -552,15 +620,20 @@
         <f t="shared" si="0"/>
         <v>168202</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>8414.1</v>
+      <c r="F6" s="1">
+        <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -577,15 +650,20 @@
         <f t="shared" si="0"/>
         <v>94344</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>4721.2</v>
+      <c r="F7" s="1">
+        <v>6</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -602,15 +680,20 @@
         <f t="shared" si="0"/>
         <v>178953</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>8951.65</v>
+      <c r="F8" s="1">
+        <v>7</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -627,15 +710,20 @@
         <f t="shared" si="0"/>
         <v>191555.5</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>9581.7749999999996</v>
+      <c r="F9" s="1">
+        <v>8</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -652,15 +740,20 @@
         <f t="shared" si="0"/>
         <v>22200.5</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>1114.0250000000001</v>
+      <c r="F10" s="1">
+        <v>9</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -677,15 +770,20 @@
         <f t="shared" si="0"/>
         <v>38461.5</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>1927.075</v>
+      <c r="F11" s="1">
+        <v>27</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -702,15 +800,20 @@
         <f t="shared" si="0"/>
         <v>175301</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>8769.0499999999993</v>
+      <c r="F12" s="1">
+        <v>83</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -727,15 +830,20 @@
         <f t="shared" si="0"/>
         <v>259716.5</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>12989.825000000001</v>
+      <c r="F13" s="1">
+        <v>25</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -752,15 +860,20 @@
         <f t="shared" si="0"/>
         <v>67393.5</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>3373.6750000000002</v>
+      <c r="F14" s="1">
+        <v>15</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -777,15 +890,20 @@
         <f t="shared" si="0"/>
         <v>70474.5</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>3527.7249999999999</v>
+      <c r="F15" s="1">
+        <v>52</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -802,15 +920,20 @@
         <f t="shared" si="0"/>
         <v>282721</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>14140.05</v>
+      <c r="F16" s="1">
+        <v>5</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -827,15 +950,20 @@
         <f t="shared" si="0"/>
         <v>104351</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>5221.55</v>
+      <c r="F17" s="1">
+        <v>53</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -852,15 +980,20 @@
         <f t="shared" si="0"/>
         <v>200705</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>10039.25</v>
+      <c r="F18" s="1">
+        <v>54</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -877,15 +1010,20 @@
         <f t="shared" si="0"/>
         <v>111074.5</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>5557.7250000000004</v>
+      <c r="F19" s="1">
+        <v>63</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -902,13 +1040,19 @@
         <v>83591</v>
       </c>
       <c r="F20" s="3">
-        <v>43591</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -922,18 +1066,23 @@
         <v>209587</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21" si="2">D21/2</f>
+        <f t="shared" ref="E21" si="1">D21/2</f>
         <v>104793.5</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>5243.6750000000002</v>
+      <c r="F21" s="1">
+        <v>9</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -947,18 +1096,23 @@
         <v>509592</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22" si="3">D22/2</f>
+        <f t="shared" ref="E22" si="2">D22/2</f>
         <v>254796</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>12743.8</v>
+      <c r="F22" s="1">
+        <v>27</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -972,18 +1126,23 @@
         <v>538258</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23" si="4">D23/2</f>
+        <f t="shared" ref="E23" si="3">D23/2</f>
         <v>269129</v>
       </c>
-      <c r="F23">
-        <f>E23/20 +4</f>
-        <v>13460.45</v>
+      <c r="F23" s="1">
+        <v>83</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -997,18 +1156,23 @@
         <v>336404</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24" si="5">D24/2</f>
+        <f t="shared" ref="E24" si="4">D24/2</f>
         <v>168202</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>8414.1</v>
+      <c r="F24" s="1">
+        <v>25</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1022,18 +1186,23 @@
         <v>188688</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25" si="6">D25/2</f>
+        <f t="shared" ref="E25" si="5">D25/2</f>
         <v>94344</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>4721.2</v>
+      <c r="F25" s="1">
+        <v>15</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1047,18 +1216,23 @@
         <v>357906</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26" si="7">D26/2</f>
+        <f t="shared" ref="E26" si="6">D26/2</f>
         <v>178953</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>8951.65</v>
+      <c r="F26" s="1">
+        <v>52</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1072,18 +1246,23 @@
         <v>383111</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27" si="8">D27/2</f>
+        <f t="shared" ref="E27" si="7">D27/2</f>
         <v>191555.5</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>9581.7749999999996</v>
+      <c r="F27" s="1">
+        <v>5</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1097,18 +1276,23 @@
         <v>44401</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28" si="9">D28/2</f>
+        <f t="shared" ref="E28" si="8">D28/2</f>
         <v>22200.5</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>1114.0250000000001</v>
+      <c r="F28" s="1">
+        <v>53</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1122,18 +1306,23 @@
         <v>76923</v>
       </c>
       <c r="E29">
-        <f t="shared" ref="E29" si="10">D29/2</f>
+        <f t="shared" ref="E29" si="9">D29/2</f>
         <v>38461.5</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>1927.075</v>
+      <c r="F29" s="1">
+        <v>54</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>11</v>
       </c>
@@ -1147,18 +1336,23 @@
         <v>350602</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30" si="11">D30/2</f>
+        <f t="shared" ref="E30" si="10">D30/2</f>
         <v>175301</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
-        <v>8769.0499999999993</v>
+      <c r="F30" s="1">
+        <v>63</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1172,18 +1366,23 @@
         <v>519433</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31" si="12">D31/2</f>
+        <f t="shared" ref="E31" si="11">D31/2</f>
         <v>259716.5</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
-        <v>12989.825000000001</v>
+      <c r="F31" s="1">
+        <v>9</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>13</v>
       </c>
@@ -1197,18 +1396,23 @@
         <v>134787</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32" si="13">D32/2</f>
+        <f t="shared" ref="E32" si="12">D32/2</f>
         <v>67393.5</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>3373.6750000000002</v>
+      <c r="F32" s="1">
+        <v>27</v>
       </c>
       <c r="G32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>14</v>
       </c>
@@ -1222,18 +1426,23 @@
         <v>140949</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33" si="14">D33/2</f>
+        <f t="shared" ref="E33" si="13">D33/2</f>
         <v>70474.5</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
-        <v>3527.7249999999999</v>
+      <c r="F33" s="1">
+        <v>83</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>15</v>
       </c>
@@ -1247,18 +1456,23 @@
         <v>565442</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34" si="15">D34/2</f>
+        <f t="shared" ref="E34" si="14">D34/2</f>
         <v>282721</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>14140.05</v>
+      <c r="F34" s="1">
+        <v>25</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>16</v>
       </c>
@@ -1272,18 +1486,23 @@
         <v>208702</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35" si="16">D35/2</f>
+        <f t="shared" ref="E35" si="15">D35/2</f>
         <v>104351</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="1"/>
-        <v>5221.55</v>
+      <c r="F35" s="1">
+        <v>15</v>
       </c>
       <c r="G35" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>17</v>
       </c>
@@ -1297,18 +1516,23 @@
         <v>401410</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36" si="17">D36/2</f>
+        <f t="shared" ref="E36" si="16">D36/2</f>
         <v>200705</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="1"/>
-        <v>10039.25</v>
+      <c r="F36" s="1">
+        <v>52</v>
       </c>
       <c r="G36" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>18</v>
       </c>
@@ -1322,18 +1546,23 @@
         <v>222149</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37" si="18">D37/2</f>
+        <f t="shared" ref="E37" si="17">D37/2</f>
         <v>111074.5</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="1"/>
-        <v>5557.7250000000004</v>
+      <c r="F37" s="1">
+        <v>5</v>
       </c>
       <c r="G37" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1347,18 +1576,23 @@
         <v>134787</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38" si="19">D38/2</f>
+        <f t="shared" ref="E38" si="18">D38/2</f>
         <v>67393.5</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="1"/>
-        <v>3373.6750000000002</v>
+      <c r="F38" s="1">
+        <v>53</v>
       </c>
       <c r="G38" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>14</v>
       </c>
@@ -1372,18 +1606,23 @@
         <v>140949</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39" si="20">D39/2</f>
+        <f t="shared" ref="E39" si="19">D39/2</f>
         <v>70474.5</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="1"/>
-        <v>3527.7249999999999</v>
+      <c r="F39" s="1">
+        <v>54</v>
       </c>
       <c r="G39" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>15</v>
       </c>
@@ -1397,18 +1636,23 @@
         <v>565442</v>
       </c>
       <c r="E40">
-        <f t="shared" ref="E40" si="21">D40/2</f>
+        <f t="shared" ref="E40" si="20">D40/2</f>
         <v>282721</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="1"/>
-        <v>14140.05</v>
+      <c r="F40" s="1">
+        <v>63</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>16</v>
       </c>
@@ -1422,18 +1666,23 @@
         <v>208702</v>
       </c>
       <c r="E41">
-        <f t="shared" ref="E41" si="22">D41/2</f>
+        <f t="shared" ref="E41" si="21">D41/2</f>
         <v>104351</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="1"/>
-        <v>5221.55</v>
+      <c r="F41" s="1">
+        <v>53</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>17</v>
       </c>
@@ -1450,15 +1699,20 @@
         <f>D42/2</f>
         <v>200705</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="1"/>
-        <v>10039.25</v>
+      <c r="F42" s="1">
+        <v>63</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>18</v>
       </c>
@@ -1474,14 +1728,20 @@
       <c r="E43">
         <v>345345</v>
       </c>
-      <c r="F43">
-        <v>345345</v>
+      <c r="F43" s="1">
+        <v>42</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>18</v>
       </c>
@@ -1494,33 +1754,21 @@
       <c r="D44" s="3">
         <v>345453</v>
       </c>
-      <c r="F44">
-        <v>345345</v>
+      <c r="F44" s="1">
+        <v>13</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
+      <c r="H44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_for_test/2data.xlsx
+++ b/data_for_test/2data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="26">
   <si>
     <t>ref_district</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>22:10:12.234234</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -150,13 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -437,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,9 +457,10 @@
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,8 +488,11 @@
       <c r="I1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -512,8 +520,11 @@
       <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J2" s="6">
+        <v>31028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -542,8 +553,11 @@
       <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J3" s="6">
+        <v>31028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -572,8 +586,11 @@
       <c r="I4" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J4" s="6">
+        <v>31028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -602,8 +619,11 @@
       <c r="I5" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J5" s="6">
+        <v>31028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -632,8 +652,11 @@
       <c r="I6" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J6" s="6">
+        <v>31028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -662,8 +685,11 @@
       <c r="I7" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J7" s="6">
+        <v>31028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -692,8 +718,11 @@
       <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J8" s="6">
+        <v>31028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -722,8 +751,11 @@
       <c r="I9" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J9" s="6">
+        <v>31028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -752,8 +784,11 @@
       <c r="I10" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J10" s="6">
+        <v>31028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -782,8 +817,11 @@
       <c r="I11" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J11" s="6">
+        <v>31028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -812,8 +850,11 @@
       <c r="I12" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J12" s="6">
+        <v>31028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -842,8 +883,11 @@
       <c r="I13" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J13" s="6">
+        <v>31028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -872,8 +916,9 @@
       <c r="I14" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -902,8 +947,9 @@
       <c r="I15" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -932,8 +978,9 @@
       <c r="I16" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -962,8 +1009,9 @@
       <c r="I17" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -992,8 +1040,9 @@
       <c r="I18" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1022,8 +1071,9 @@
       <c r="I19" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1051,8 +1101,9 @@
       <c r="I20" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1081,8 +1132,9 @@
       <c r="I21" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1111,8 +1163,9 @@
       <c r="I22" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1141,8 +1194,9 @@
       <c r="I23" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1171,8 +1225,9 @@
       <c r="I24" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1201,8 +1256,9 @@
       <c r="I25" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1231,8 +1287,9 @@
       <c r="I26" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1261,8 +1318,9 @@
       <c r="I27" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1291,8 +1349,9 @@
       <c r="I28" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1321,8 +1380,9 @@
       <c r="I29" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>11</v>
       </c>
@@ -1351,8 +1411,9 @@
       <c r="I30" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1381,8 +1442,9 @@
       <c r="I31" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>13</v>
       </c>
@@ -1411,8 +1473,9 @@
       <c r="I32" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>14</v>
       </c>
@@ -1441,8 +1504,9 @@
       <c r="I33" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>15</v>
       </c>
@@ -1471,8 +1535,9 @@
       <c r="I34" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>16</v>
       </c>
@@ -1501,8 +1566,9 @@
       <c r="I35" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>17</v>
       </c>
@@ -1531,8 +1597,9 @@
       <c r="I36" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>18</v>
       </c>
@@ -1561,8 +1628,9 @@
       <c r="I37" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1592,7 +1660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>14</v>
       </c>
@@ -1622,7 +1690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>15</v>
       </c>
@@ -1652,7 +1720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>16</v>
       </c>
@@ -1682,7 +1750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>17</v>
       </c>
@@ -1712,7 +1780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>18</v>
       </c>
@@ -1741,7 +1809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>18</v>
       </c>
@@ -1767,7 +1835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F45" s="1"/>
     </row>
   </sheetData>

--- a/data_for_test/2data.xlsx
+++ b/data_for_test/2data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="27">
   <si>
     <t>ref_district</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>2019-12-13 11:40:03.923859</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +557,7 @@
         <v>18</v>
       </c>
       <c r="J3" s="6">
-        <v>31028</v>
+        <v>31029</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -587,7 +590,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="6">
-        <v>31028</v>
+        <v>31029</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -620,7 +623,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="6">
-        <v>31028</v>
+        <v>31030</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -653,7 +656,7 @@
         <v>18</v>
       </c>
       <c r="J6" s="6">
-        <v>31028</v>
+        <v>31030</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -686,7 +689,7 @@
         <v>18</v>
       </c>
       <c r="J7" s="6">
-        <v>31028</v>
+        <v>31030</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -716,10 +719,10 @@
         <v>23</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J8" s="6">
-        <v>31028</v>
+        <v>31031</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -752,7 +755,7 @@
         <v>18</v>
       </c>
       <c r="J9" s="6">
-        <v>31028</v>
+        <v>31031</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -785,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="J10" s="6">
-        <v>31028</v>
+        <v>31033</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -818,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="J11" s="6">
-        <v>31028</v>
+        <v>31033</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -851,7 +854,7 @@
         <v>18</v>
       </c>
       <c r="J12" s="6">
-        <v>31028</v>
+        <v>31031</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -884,7 +887,7 @@
         <v>18</v>
       </c>
       <c r="J13" s="6">
-        <v>31028</v>
+        <v>31031</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -916,7 +919,9 @@
       <c r="I14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="6"/>
+      <c r="J14" s="6">
+        <v>31031</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -947,7 +952,9 @@
       <c r="I15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="6"/>
+      <c r="J15" s="6">
+        <v>31033</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -978,7 +985,9 @@
       <c r="I16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="6"/>
+      <c r="J16" s="6">
+        <v>31033</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -1009,7 +1018,9 @@
       <c r="I17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="6"/>
+      <c r="J17" s="6">
+        <v>31031</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -1040,7 +1051,9 @@
       <c r="I18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="6"/>
+      <c r="J18" s="6">
+        <v>31031</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -1071,7 +1084,9 @@
       <c r="I19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="6"/>
+      <c r="J19" s="6">
+        <v>31035</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20">

--- a/data_for_test/2data.xlsx
+++ b/data_for_test/2data.xlsx
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,9 +540,8 @@
       <c r="D3" s="1">
         <v>209587</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E19" si="0">D3/2</f>
-        <v>104793.5</v>
+      <c r="E3" s="1">
+        <v>109587</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -573,9 +572,8 @@
       <c r="D4" s="3">
         <v>509592</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>254796</v>
+      <c r="E4" s="3">
+        <v>259592</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -606,9 +604,8 @@
       <c r="D5" s="3">
         <v>538258</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>269129</v>
+      <c r="E5" s="3">
+        <v>238258</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -639,9 +636,8 @@
       <c r="D6" s="3">
         <v>336404</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>168202</v>
+      <c r="E6" s="3">
+        <v>156404</v>
       </c>
       <c r="F6" s="1">
         <v>15</v>
@@ -672,9 +668,8 @@
       <c r="D7" s="3">
         <v>188688</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>94344</v>
+      <c r="E7" s="3">
+        <v>98688</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -705,9 +700,8 @@
       <c r="D8" s="3">
         <v>357906</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>178953</v>
+      <c r="E8" s="3">
+        <v>177906</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -738,9 +732,8 @@
       <c r="D9" s="3">
         <v>383111</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>191555.5</v>
+      <c r="E9" s="3">
+        <v>193111</v>
       </c>
       <c r="F9" s="1">
         <v>8</v>
@@ -771,9 +764,8 @@
       <c r="D10" s="3">
         <v>44401</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>22200.5</v>
+      <c r="E10" s="3">
+        <v>22401</v>
       </c>
       <c r="F10" s="1">
         <v>9</v>
@@ -804,9 +796,8 @@
       <c r="D11" s="3">
         <v>76923</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>38461.5</v>
+      <c r="E11" s="3">
+        <v>38923</v>
       </c>
       <c r="F11" s="1">
         <v>27</v>
@@ -837,9 +828,8 @@
       <c r="D12" s="3">
         <v>350602</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>175301</v>
+      <c r="E12" s="3">
+        <v>140602</v>
       </c>
       <c r="F12" s="1">
         <v>83</v>
@@ -870,9 +860,8 @@
       <c r="D13" s="3">
         <v>519433</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>259716.5</v>
+      <c r="E13" s="3">
+        <v>269433</v>
       </c>
       <c r="F13" s="1">
         <v>25</v>
@@ -903,9 +892,8 @@
       <c r="D14" s="3">
         <v>134787</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>67393.5</v>
+      <c r="E14" s="3">
+        <v>74787</v>
       </c>
       <c r="F14" s="1">
         <v>15</v>
@@ -936,9 +924,8 @@
       <c r="D15" s="3">
         <v>140949</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>70474.5</v>
+      <c r="E15" s="3">
+        <v>70949</v>
       </c>
       <c r="F15" s="1">
         <v>52</v>
@@ -969,9 +956,8 @@
       <c r="D16" s="3">
         <v>565442</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>282721</v>
+      <c r="E16" s="3">
+        <v>285442</v>
       </c>
       <c r="F16" s="1">
         <v>5</v>
@@ -1002,9 +988,8 @@
       <c r="D17" s="3">
         <v>208702</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>104351</v>
+      <c r="E17" s="3">
+        <v>108702</v>
       </c>
       <c r="F17" s="1">
         <v>53</v>
@@ -1035,9 +1020,8 @@
       <c r="D18" s="3">
         <v>401410</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>200705</v>
+      <c r="E18" s="3">
+        <v>201410</v>
       </c>
       <c r="F18" s="1">
         <v>54</v>
@@ -1068,9 +1052,8 @@
       <c r="D19" s="3">
         <v>222149</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>111074.5</v>
+      <c r="E19" s="3">
+        <v>122149</v>
       </c>
       <c r="F19" s="1">
         <v>63</v>
@@ -1099,7 +1082,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="3">
-        <v>163591</v>
+        <v>-163591</v>
       </c>
       <c r="E20" s="3">
         <v>83591</v>
@@ -1116,7 +1099,9 @@
       <c r="I20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="6"/>
+      <c r="J20" s="6">
+        <v>31028</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -1129,11 +1114,10 @@
         <v>7</v>
       </c>
       <c r="D21" s="1">
-        <v>209587</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ref="E21" si="1">D21/2</f>
-        <v>104793.5</v>
+        <v>-209587</v>
+      </c>
+      <c r="E21" s="1">
+        <v>109587</v>
       </c>
       <c r="F21" s="1">
         <v>9</v>
@@ -1147,7 +1131,9 @@
       <c r="I21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="6"/>
+      <c r="J21" s="6">
+        <v>31029</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -1160,11 +1146,10 @@
         <v>7</v>
       </c>
       <c r="D22" s="3">
-        <v>509592</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ref="E22" si="2">D22/2</f>
-        <v>254796</v>
+        <v>-509592</v>
+      </c>
+      <c r="E22" s="3">
+        <v>259592</v>
       </c>
       <c r="F22" s="1">
         <v>27</v>
@@ -1178,7 +1163,9 @@
       <c r="I22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="6"/>
+      <c r="J22" s="6">
+        <v>31029</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -1191,11 +1178,10 @@
         <v>7</v>
       </c>
       <c r="D23" s="3">
-        <v>538258</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ref="E23" si="3">D23/2</f>
-        <v>269129</v>
+        <v>-538258</v>
+      </c>
+      <c r="E23" s="3">
+        <v>238258</v>
       </c>
       <c r="F23" s="1">
         <v>83</v>
@@ -1209,7 +1195,9 @@
       <c r="I23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="6"/>
+      <c r="J23" s="6">
+        <v>31030</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -1222,11 +1210,10 @@
         <v>7</v>
       </c>
       <c r="D24" s="3">
-        <v>336404</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ref="E24" si="4">D24/2</f>
-        <v>168202</v>
+        <v>-336404</v>
+      </c>
+      <c r="E24" s="3">
+        <v>156404</v>
       </c>
       <c r="F24" s="1">
         <v>25</v>
@@ -1240,7 +1227,9 @@
       <c r="I24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="6"/>
+      <c r="J24" s="6">
+        <v>31030</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -1253,11 +1242,10 @@
         <v>7</v>
       </c>
       <c r="D25" s="3">
-        <v>188688</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ref="E25" si="5">D25/2</f>
-        <v>94344</v>
+        <v>-188688</v>
+      </c>
+      <c r="E25" s="3">
+        <v>98688</v>
       </c>
       <c r="F25" s="1">
         <v>15</v>
@@ -1271,7 +1259,9 @@
       <c r="I25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="6"/>
+      <c r="J25" s="6">
+        <v>31030</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -1284,11 +1274,10 @@
         <v>7</v>
       </c>
       <c r="D26" s="3">
-        <v>357906</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ref="E26" si="6">D26/2</f>
-        <v>178953</v>
+        <v>-357906</v>
+      </c>
+      <c r="E26" s="3">
+        <v>177906</v>
       </c>
       <c r="F26" s="1">
         <v>52</v>
@@ -1302,7 +1291,9 @@
       <c r="I26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="6"/>
+      <c r="J26" s="6">
+        <v>31031</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -1315,11 +1306,10 @@
         <v>7</v>
       </c>
       <c r="D27" s="3">
-        <v>383111</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ref="E27" si="7">D27/2</f>
-        <v>191555.5</v>
+        <v>-383111</v>
+      </c>
+      <c r="E27" s="3">
+        <v>193111</v>
       </c>
       <c r="F27" s="1">
         <v>5</v>
@@ -1333,7 +1323,9 @@
       <c r="I27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="6"/>
+      <c r="J27" s="6">
+        <v>31031</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -1348,9 +1340,8 @@
       <c r="D28" s="3">
         <v>44401</v>
       </c>
-      <c r="E28">
-        <f t="shared" ref="E28" si="8">D28/2</f>
-        <v>22200.5</v>
+      <c r="E28" s="3">
+        <v>22401</v>
       </c>
       <c r="F28" s="1">
         <v>53</v>
@@ -1364,7 +1355,9 @@
       <c r="I28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="6"/>
+      <c r="J28" s="6">
+        <v>31033</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -1379,9 +1372,8 @@
       <c r="D29" s="3">
         <v>76923</v>
       </c>
-      <c r="E29">
-        <f t="shared" ref="E29" si="9">D29/2</f>
-        <v>38461.5</v>
+      <c r="E29" s="3">
+        <v>38923</v>
       </c>
       <c r="F29" s="1">
         <v>54</v>
@@ -1395,7 +1387,9 @@
       <c r="I29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="6"/>
+      <c r="J29" s="6">
+        <v>31033</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -1410,9 +1404,8 @@
       <c r="D30" s="3">
         <v>350602</v>
       </c>
-      <c r="E30">
-        <f t="shared" ref="E30" si="10">D30/2</f>
-        <v>175301</v>
+      <c r="E30" s="3">
+        <v>140602</v>
       </c>
       <c r="F30" s="1">
         <v>63</v>
@@ -1426,7 +1419,9 @@
       <c r="I30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="6"/>
+      <c r="J30" s="6">
+        <v>31031</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31">
@@ -1441,9 +1436,8 @@
       <c r="D31" s="3">
         <v>519433</v>
       </c>
-      <c r="E31">
-        <f t="shared" ref="E31" si="11">D31/2</f>
-        <v>259716.5</v>
+      <c r="E31" s="3">
+        <v>269433</v>
       </c>
       <c r="F31" s="1">
         <v>9</v>
@@ -1457,7 +1451,9 @@
       <c r="I31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="6"/>
+      <c r="J31" s="6">
+        <v>31031</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32">
@@ -1472,9 +1468,8 @@
       <c r="D32" s="3">
         <v>134787</v>
       </c>
-      <c r="E32">
-        <f t="shared" ref="E32" si="12">D32/2</f>
-        <v>67393.5</v>
+      <c r="E32" s="3">
+        <v>74787</v>
       </c>
       <c r="F32" s="1">
         <v>27</v>
@@ -1488,7 +1483,9 @@
       <c r="I32" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="6"/>
+      <c r="J32" s="6">
+        <v>31031</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33">
@@ -1503,9 +1500,8 @@
       <c r="D33" s="3">
         <v>140949</v>
       </c>
-      <c r="E33">
-        <f t="shared" ref="E33" si="13">D33/2</f>
-        <v>70474.5</v>
+      <c r="E33" s="3">
+        <v>70949</v>
       </c>
       <c r="F33" s="1">
         <v>83</v>
@@ -1519,7 +1515,9 @@
       <c r="I33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="6"/>
+      <c r="J33" s="6">
+        <v>31033</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34">
@@ -1534,9 +1532,8 @@
       <c r="D34" s="3">
         <v>565442</v>
       </c>
-      <c r="E34">
-        <f t="shared" ref="E34" si="14">D34/2</f>
-        <v>282721</v>
+      <c r="E34" s="3">
+        <v>285442</v>
       </c>
       <c r="F34" s="1">
         <v>25</v>
@@ -1550,7 +1547,9 @@
       <c r="I34" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="6"/>
+      <c r="J34" s="6">
+        <v>31033</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35">
@@ -1565,9 +1564,8 @@
       <c r="D35" s="3">
         <v>208702</v>
       </c>
-      <c r="E35">
-        <f t="shared" ref="E35" si="15">D35/2</f>
-        <v>104351</v>
+      <c r="E35" s="3">
+        <v>108702</v>
       </c>
       <c r="F35" s="1">
         <v>15</v>
@@ -1581,7 +1579,9 @@
       <c r="I35" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J35" s="6"/>
+      <c r="J35" s="6">
+        <v>31031</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36">
@@ -1596,9 +1596,8 @@
       <c r="D36" s="3">
         <v>401410</v>
       </c>
-      <c r="E36">
-        <f t="shared" ref="E36" si="16">D36/2</f>
-        <v>200705</v>
+      <c r="E36" s="3">
+        <v>201410</v>
       </c>
       <c r="F36" s="1">
         <v>52</v>
@@ -1612,7 +1611,9 @@
       <c r="I36" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J36" s="6"/>
+      <c r="J36" s="6">
+        <v>31031</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37">
@@ -1627,9 +1628,8 @@
       <c r="D37" s="3">
         <v>222149</v>
       </c>
-      <c r="E37">
-        <f t="shared" ref="E37" si="17">D37/2</f>
-        <v>111074.5</v>
+      <c r="E37" s="3">
+        <v>122149</v>
       </c>
       <c r="F37" s="1">
         <v>5</v>
@@ -1643,7 +1643,9 @@
       <c r="I37" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J37" s="6"/>
+      <c r="J37" s="6">
+        <v>31035</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -1659,7 +1661,7 @@
         <v>134787</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38" si="18">D38/2</f>
+        <f t="shared" ref="E38" si="0">D38/2</f>
         <v>67393.5</v>
       </c>
       <c r="F38" s="1">
@@ -1689,7 +1691,7 @@
         <v>140949</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39" si="19">D39/2</f>
+        <f t="shared" ref="E39" si="1">D39/2</f>
         <v>70474.5</v>
       </c>
       <c r="F39" s="1">
@@ -1719,7 +1721,7 @@
         <v>565442</v>
       </c>
       <c r="E40">
-        <f t="shared" ref="E40" si="20">D40/2</f>
+        <f t="shared" ref="E40" si="2">D40/2</f>
         <v>282721</v>
       </c>
       <c r="F40" s="1">
@@ -1749,7 +1751,7 @@
         <v>208702</v>
       </c>
       <c r="E41">
-        <f t="shared" ref="E41" si="21">D41/2</f>
+        <f t="shared" ref="E41" si="3">D41/2</f>
         <v>104351</v>
       </c>
       <c r="F41" s="1">

--- a/data_for_test/2data.xlsx
+++ b/data_for_test/2data.xlsx
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +512,7 @@
         <v>83591</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -544,7 +544,7 @@
         <v>109587</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -576,7 +576,7 @@
         <v>259592</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -608,7 +608,7 @@
         <v>238258</v>
       </c>
       <c r="F5" s="1">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -672,7 +672,7 @@
         <v>98688</v>
       </c>
       <c r="F7" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -704,7 +704,7 @@
         <v>177906</v>
       </c>
       <c r="F8" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -736,7 +736,7 @@
         <v>193111</v>
       </c>
       <c r="F9" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -768,7 +768,7 @@
         <v>22401</v>
       </c>
       <c r="F10" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -800,7 +800,7 @@
         <v>38923</v>
       </c>
       <c r="F11" s="1">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -832,7 +832,7 @@
         <v>140602</v>
       </c>
       <c r="F12" s="1">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -864,7 +864,7 @@
         <v>269433</v>
       </c>
       <c r="F13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -896,7 +896,7 @@
         <v>74787</v>
       </c>
       <c r="F14" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -928,7 +928,7 @@
         <v>70949</v>
       </c>
       <c r="F15" s="1">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -960,7 +960,7 @@
         <v>285442</v>
       </c>
       <c r="F16" s="1">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
@@ -992,7 +992,7 @@
         <v>108702</v>
       </c>
       <c r="F17" s="1">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
@@ -1024,7 +1024,7 @@
         <v>201410</v>
       </c>
       <c r="F18" s="1">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -1056,7 +1056,7 @@
         <v>122149</v>
       </c>
       <c r="F19" s="1">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -1082,13 +1082,13 @@
         <v>7</v>
       </c>
       <c r="D20" s="3">
-        <v>-163591</v>
+        <v>163591</v>
       </c>
       <c r="E20" s="3">
         <v>83591</v>
       </c>
       <c r="F20" s="3">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -1114,13 +1114,13 @@
         <v>7</v>
       </c>
       <c r="D21" s="1">
-        <v>-209587</v>
+        <v>209587</v>
       </c>
       <c r="E21" s="1">
         <v>109587</v>
       </c>
       <c r="F21" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -1146,13 +1146,13 @@
         <v>7</v>
       </c>
       <c r="D22" s="3">
-        <v>-509592</v>
+        <v>509592</v>
       </c>
       <c r="E22" s="3">
         <v>259592</v>
       </c>
       <c r="F22" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
@@ -1178,13 +1178,13 @@
         <v>7</v>
       </c>
       <c r="D23" s="3">
-        <v>-538258</v>
+        <v>538258</v>
       </c>
       <c r="E23" s="3">
         <v>238258</v>
       </c>
       <c r="F23" s="1">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -1210,13 +1210,13 @@
         <v>7</v>
       </c>
       <c r="D24" s="3">
-        <v>-336404</v>
+        <v>336404</v>
       </c>
       <c r="E24" s="3">
         <v>156404</v>
       </c>
       <c r="F24" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
@@ -1242,13 +1242,13 @@
         <v>7</v>
       </c>
       <c r="D25" s="3">
-        <v>-188688</v>
+        <v>188688</v>
       </c>
       <c r="E25" s="3">
         <v>98688</v>
       </c>
       <c r="F25" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
@@ -1274,13 +1274,13 @@
         <v>7</v>
       </c>
       <c r="D26" s="3">
-        <v>-357906</v>
+        <v>357906</v>
       </c>
       <c r="E26" s="3">
         <v>177906</v>
       </c>
       <c r="F26" s="1">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
@@ -1306,13 +1306,13 @@
         <v>7</v>
       </c>
       <c r="D27" s="3">
-        <v>-383111</v>
+        <v>383111</v>
       </c>
       <c r="E27" s="3">
         <v>193111</v>
       </c>
       <c r="F27" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
@@ -1344,7 +1344,7 @@
         <v>22401</v>
       </c>
       <c r="F28" s="1">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -1376,7 +1376,7 @@
         <v>38923</v>
       </c>
       <c r="F29" s="1">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
@@ -1408,7 +1408,7 @@
         <v>140602</v>
       </c>
       <c r="F30" s="1">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
@@ -1440,7 +1440,7 @@
         <v>269433</v>
       </c>
       <c r="F31" s="1">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -1472,7 +1472,7 @@
         <v>74787</v>
       </c>
       <c r="F32" s="1">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
         <v>11</v>
@@ -1504,7 +1504,7 @@
         <v>70949</v>
       </c>
       <c r="F33" s="1">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
@@ -1536,7 +1536,7 @@
         <v>285442</v>
       </c>
       <c r="F34" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
@@ -1568,7 +1568,7 @@
         <v>108702</v>
       </c>
       <c r="F35" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G35" t="s">
         <v>13</v>
@@ -1600,7 +1600,7 @@
         <v>201410</v>
       </c>
       <c r="F36" s="1">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
         <v>11</v>
@@ -1632,7 +1632,7 @@
         <v>122149</v>
       </c>
       <c r="F37" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
         <v>11</v>
